--- a/src/test/resources/Excel/Zerobanking.xlsx
+++ b/src/test/resources/Excel/Zerobanking.xlsx
@@ -5,34 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p_wav\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6FB47D-6ECC-47E0-82CF-A6AA0B315052}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82929409-FD95-46B8-859D-AEB215619AE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FB7BA588-7009-41B6-8075-6F06FFCAE521}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FB7BA588-7009-41B6-8075-6F06FFCAE521}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>username</t>
   </si>
@@ -40,10 +33,7 @@
     <t>password</t>
   </si>
   <si>
-    <t>richa</t>
-  </si>
-  <si>
-    <t>abc</t>
+    <t>Hema</t>
   </si>
 </sst>
 </file>
@@ -395,18 +385,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E92CD8-9B6D-4569-947E-023DE12D9B39}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -414,39 +404,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0468BC-ECB4-4B05-A52D-031E27B574F8}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>